--- a/ESII-TESTES.xlsx
+++ b/ESII-TESTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\ESII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB49171-1963-4BB9-B3BC-4534ADFF55D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D43B4-A5D0-4B1F-A8C6-0FA08ABFEF99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{7A3594C9-EE4F-4814-9D10-D5D182C9807B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>#TestCase</t>
   </si>
@@ -58,13 +58,196 @@
   </si>
   <si>
     <t>Method Being Tested</t>
+  </si>
+  <si>
+    <t>IDUser</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>registerUser</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rentalProgram</t>
+  </si>
+  <si>
+    <t>exemplo</t>
+  </si>
+  <si>
+    <t>ECP1</t>
+  </si>
+  <si>
+    <t>ECP4</t>
+  </si>
+  <si>
+    <t>ECP5</t>
+  </si>
+  <si>
+    <t>ECP2</t>
+  </si>
+  <si>
+    <t>ECP3</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ECP6</t>
+  </si>
+  <si>
+    <t>addCredit</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>ECP7</t>
+  </si>
+  <si>
+    <t>ECP10</t>
+  </si>
+  <si>
+    <t>ECP8</t>
+  </si>
+  <si>
+    <t>ECP11</t>
+  </si>
+  <si>
+    <t>ECP9</t>
+  </si>
+  <si>
+    <t>ECP12</t>
+  </si>
+  <si>
+    <t>verifyCredit</t>
+  </si>
+  <si>
+    <t>ECP13</t>
+  </si>
+  <si>
+    <t>ECP16</t>
+  </si>
+  <si>
+    <t>ECP14</t>
+  </si>
+  <si>
+    <t>ECP17</t>
+  </si>
+  <si>
+    <t>ECP15</t>
+  </si>
+  <si>
+    <t>ECP18</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>nRentals</t>
+  </si>
+  <si>
+    <t>bicycleRentalFee</t>
+  </si>
+  <si>
+    <t>ECP19</t>
+  </si>
+  <si>
+    <t>ECP22</t>
+  </si>
+  <si>
+    <t>ECP20</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>ECP23</t>
+  </si>
+  <si>
+    <t>ECP21</t>
+  </si>
+  <si>
+    <t>ECP24</t>
+  </si>
+  <si>
+    <t>IDDeposit</t>
+  </si>
+  <si>
+    <t>returnBicycle</t>
+  </si>
+  <si>
+    <t>ECP25</t>
+  </si>
+  <si>
+    <t>ECP28</t>
+  </si>
+  <si>
+    <t>ECP26</t>
+  </si>
+  <si>
+    <t>ECP29</t>
+  </si>
+  <si>
+    <t>ECP27</t>
+  </si>
+  <si>
+    <t>ECP30</t>
+  </si>
+  <si>
+    <t>getBicycle</t>
+  </si>
+  <si>
+    <t>ECP31</t>
+  </si>
+  <si>
+    <t>ECP34</t>
+  </si>
+  <si>
+    <t>ECP32</t>
+  </si>
+  <si>
+    <t>ECP35</t>
+  </si>
+  <si>
+    <t>ECP33</t>
+  </si>
+  <si>
+    <t>ECP36</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +257,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,18 +292,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,57 +625,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38459-B5CF-43EA-AA6A-930A8C389685}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -487,22 +692,640 @@
       <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="E28">
+        <v>-2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+      <c r="E36">
+        <v>-2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="3"/>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="E44">
+        <v>-2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>-2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="15">
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C13:C19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESII-TESTES.xlsx
+++ b/ESII-TESTES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\ESII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D43B4-A5D0-4B1F-A8C6-0FA08ABFEF99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA00397-6033-458A-A88B-E668B059B689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{7A3594C9-EE4F-4814-9D10-D5D182C9807B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>#TestCase</t>
   </si>
@@ -241,6 +241,63 @@
   </si>
   <si>
     <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>Registo do utilizador no sistema Bicycle Rentals</t>
+  </si>
+  <si>
+    <t>Adição de crédito à conta de um utilizador</t>
+  </si>
+  <si>
+    <t>Verifica se o saldo da conta de um utilizador é positivo</t>
+  </si>
+  <si>
+    <t>Cálculo do custo do aluguer com base no tarifário de aluguer</t>
+  </si>
+  <si>
+    <t>Faz o retorno da bicleta ao deposito e termina o aluguer</t>
+  </si>
+  <si>
+    <t>Retirar uma bicicleta do deposito e iniciar o aluguer</t>
   </si>
 </sst>
 </file>
@@ -295,9 +352,7 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,12 +360,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,16 +682,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB38459-B5CF-43EA-AA6A-930A8C389685}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -643,7 +700,8 @@
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -659,19 +717,19 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -697,28 +755,30 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="3"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -733,7 +793,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="3"/>
@@ -751,7 +811,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="3"/>
@@ -769,7 +829,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="3"/>
@@ -787,7 +847,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3"/>
@@ -805,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="3"/>
@@ -823,509 +883,643 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="E19">
-        <v>-1</v>
-      </c>
-      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="E23">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="E24" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+      <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="E28">
-        <v>-2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
       <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+        <v>-2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>5</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
-      <c r="E36">
-        <v>-2</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="3"/>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
+      <c r="G42" t="s">
         <v>10</v>
       </c>
-      <c r="L39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="3"/>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H42" t="s">
         <v>10</v>
       </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="L41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
       <c r="L42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
       <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="3"/>
+      <c r="E46">
+        <v>-2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C57" s="3"/>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C58" s="3"/>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C59" s="3"/>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="L59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C60" s="3"/>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-      <c r="E44">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C61" s="3"/>
+      <c r="E61">
         <v>-2</v>
       </c>
-      <c r="F44">
+      <c r="F61">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G61">
         <v>-1</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="3"/>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="E48" t="s">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="E65" t="s">
         <v>10</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
         <v>3</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
-      <c r="E49">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C66" s="3"/>
+      <c r="E66">
         <v>3</v>
       </c>
-      <c r="F49">
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-      <c r="E50">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C67" s="3"/>
+      <c r="E67">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F67" t="s">
         <v>14</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="3"/>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C68" s="3"/>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="G68">
         <v>0</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="3"/>
-      <c r="E52">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C69" s="3"/>
+      <c r="E69">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F69">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G69">
         <v>-2</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L69" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C41:C53"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
